--- a/data/fb_account_data.xlsx
+++ b/data/fb_account_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\SuChenAI\Factbook-RPA-clickurl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6FCFDD-49D7-46D0-90B0-4F3E7E398524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42961086-30EC-40E0-A648-842D87DC31EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="19200" windowHeight="9970" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="發文" sheetId="1" r:id="rId1"/>
     <sheet name="留言" sheetId="2" r:id="rId2"/>
     <sheet name="爬蟲" sheetId="3" r:id="rId3"/>
-    <sheet name="跳轉" sheetId="4" r:id="rId4"/>
+    <sheet name="點擊" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">發文!$A$1:$S$1</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>帳號</t>
   </si>
@@ -145,111 +145,71 @@
     <t>發文圖片_2</t>
   </si>
   <si>
+    <t>y2023m12w3</t>
+  </si>
+  <si>
+    <t>2KHGTPCEWXTU3FOUCFOW62DRD6L7KZDD</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/prestigetaiwan/posts/889301466651603</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跳轉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>連結</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>跳轉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>TF2GGA2KNURQWMQTLJPXJXPP553WPTSN</t>
+  </si>
+  <si>
+    <t>PLBME5SNNCSEJWXJUTFDUHVT3AN2P6RZ</t>
+  </si>
+  <si>
+    <t>7B5QVLRTCAC34JEZGE57VFY3K4JP2ITD</t>
+  </si>
+  <si>
+    <t>P7YMH4MRHIU44K3WLBTPWV4SFJR73T2J</t>
+  </si>
+  <si>
+    <t>KLP2N5TQTWBVJBNOO4PSINI2PTIZMYED</t>
+  </si>
+  <si>
+    <t>W2KRHPQ2DRXNXE676M6MIJI4DH22ZCEL</t>
+  </si>
+  <si>
+    <t>VZPFRM2DKAR63EL5AVDR6GU24HTOVL3V</t>
+  </si>
+  <si>
+    <t>y2024m04W3</t>
   </si>
   <si>
     <t>y2023m12w3</t>
-  </si>
-  <si>
-    <t>P7YMH4MRHIU44K3WLBTPWV4SFJR73T2J</t>
-  </si>
-  <si>
-    <t>kamoney03.ddns.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TF2GGA2KNURQWMQTLJPXJXPP553WPTSN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2KHGTPCEWXTU3FOUCFOW62DRD6L7KZDD</t>
-  </si>
-  <si>
-    <t>PLBME5SNNCSEJWXJUTFDUHVT3AN2P6RZ</t>
-  </si>
-  <si>
-    <t>7B5QVLRTCAC34JEZGE57VFY3K4JP2ITD</t>
-  </si>
-  <si>
-    <t>KLP2N5TQTWBVJBNOO4PSINI2PTIZMYED</t>
-  </si>
-  <si>
-    <t>W2KRHPQ2DRXNXE676M6MIJI4DH22ZCEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VZPFRM2DKAR63EL5AVDR6GU24HTOVL3V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6THCT3BFZC2NLZNR7QW4OC3GW5XPLES</t>
+  </si>
+  <si>
+    <t>HSR4PUCBGWZS2HZUPNEZJMJI3LRBAKP2</t>
+  </si>
+  <si>
+    <t>K4DE36MXRFPSIXXSQU7Z6WVRAXIHMX6Y</t>
+  </si>
+  <si>
+    <t>HSNFXMW4OM5O6PECYUSND7MLET6VEQSU</t>
+  </si>
+  <si>
+    <t>XAAURZEMZJKXO3VET7APNCUJ4WTQT34O</t>
+  </si>
+  <si>
+    <t>點擊連結_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊操作_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +224,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
@@ -272,43 +239,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -324,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -354,12 +287,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -396,28 +343,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -722,7 +657,9 @@
   </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -823,9 +760,8 @@
       <c r="S2" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -836,7 +772,9 @@
   </sheetPr>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -999,7 +937,7 @@
       <c r="S5" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1073,7 +1011,8 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="I2" s="15"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
     </row>
@@ -1130,318 +1069,463 @@
       <c r="K6" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFA23C0-44BD-4109-88D5-CE54EA83476C}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC1D685-E32D-4C86-A3E2-4FA3BFA1D2C6}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="3" max="3" width="47.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>66634899161</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>24004</v>
+      </c>
+      <c r="F2">
+        <v>2410181343</v>
+      </c>
+      <c r="G2">
+        <v>2410181343</v>
+      </c>
+      <c r="H2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="19">
-        <v>66634899161</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>66637943259</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>24003</v>
+      </c>
+      <c r="F3">
+        <v>2410181343</v>
+      </c>
+      <c r="G3">
+        <v>2410181343</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>66619622845</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>24005</v>
+      </c>
+      <c r="F4">
+        <v>2410181343</v>
+      </c>
+      <c r="G4">
+        <v>2410181343</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>66935324825</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>24006</v>
+      </c>
+      <c r="F5">
+        <v>2410181343</v>
+      </c>
+      <c r="G5">
+        <v>2410181343</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>66990183891</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>24001</v>
+      </c>
+      <c r="F6">
+        <v>2410181343</v>
+      </c>
+      <c r="G6">
+        <v>2410181343</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>66823237283</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="16">
-        <v>24004</v>
-      </c>
-      <c r="F2" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G2" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="E7">
+        <v>24008</v>
+      </c>
+      <c r="F7">
+        <v>2410181343</v>
+      </c>
+      <c r="G7">
+        <v>2410181343</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>66991704166</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>24009</v>
+      </c>
+      <c r="F8">
+        <v>2410181343</v>
+      </c>
+      <c r="G8">
+        <v>2410181343</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="19">
-        <v>66637943259</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="16" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>66646155782</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16">
-        <v>24003</v>
-      </c>
-      <c r="F3" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G3" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="E9">
+        <v>24010</v>
+      </c>
+      <c r="F9">
+        <v>2410181343</v>
+      </c>
+      <c r="G9">
+        <v>2410181343</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>447387826081</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>24001</v>
+      </c>
+      <c r="F10">
+        <v>2410181343</v>
+      </c>
+      <c r="G10">
+        <v>2410181343</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>66643407753</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>24006.805555555598</v>
+      </c>
+      <c r="F11">
+        <v>2410181343</v>
+      </c>
+      <c r="G11">
+        <v>2410181343</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>66954958462</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="C12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>24007.122222222199</v>
+      </c>
+      <c r="F12">
+        <v>2410181343</v>
+      </c>
+      <c r="G12">
+        <v>2410181343</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
-        <v>66619622845</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="16" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>66804035563</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16">
-        <v>24005</v>
-      </c>
-      <c r="F4" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="E13">
+        <v>24007.438888888901</v>
+      </c>
+      <c r="F13">
+        <v>2410181343</v>
+      </c>
+      <c r="G13">
+        <v>2410181343</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>66823121944</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="C14" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>24007.755555555599</v>
+      </c>
+      <c r="F14">
+        <v>2410181343</v>
+      </c>
+      <c r="G14">
+        <v>2410181343</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="19">
-        <v>66935324825</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="16" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>66814785452</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16">
-        <v>24006</v>
-      </c>
-      <c r="F5" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G5" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="16" t="s">
+      <c r="E15">
+        <v>24008.072222222199</v>
+      </c>
+      <c r="F15">
+        <v>2410181343</v>
+      </c>
+      <c r="G15">
+        <v>2410181343</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>66990183891</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="16">
-        <v>24001</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="19">
-        <v>66823237283</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="16">
-        <v>24008</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="19">
-        <v>66991704166</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="16">
-        <v>24009</v>
-      </c>
-      <c r="F8" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="19">
-        <v>66646155782</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="16">
-        <v>24010</v>
-      </c>
-      <c r="F9" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G9" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
-        <v>447387826081</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16">
-        <v>24001</v>
-      </c>
-      <c r="F10" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2410181343</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>